--- a/Marketing/AdWords/S2T/S2T_adwords.xlsx
+++ b/Marketing/AdWords/S2T/S2T_adwords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashford\Documents\design\adwords\s2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NextGen\Marketing\AdWords\S2T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC017FC9-0F24-4F8B-BF6E-8D3C992065C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88156310-DC32-43F1-9AC9-A3485478D6DC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6945" activeTab="1" xr2:uid="{B5B100C2-6ACD-45D2-BA20-18D15ADB7D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="6945" activeTab="2" xr2:uid="{B5B100C2-6ACD-45D2-BA20-18D15ADB7D86}"/>
   </bookViews>
   <sheets>
     <sheet name="fact_adwords_performance" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="383">
   <si>
     <t>table name</t>
   </si>
@@ -897,9 +897,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>??????</t>
-  </si>
-  <si>
     <t>Max. CPC</t>
   </si>
   <si>
@@ -1222,6 +1219,9 @@
   </si>
   <si>
     <t>Keyword_name</t>
+  </si>
+  <si>
+    <t>if contains mobileapp::</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,12 +1335,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,7 +1436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1630,9 +1624,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2344,7 +2335,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>14</v>
@@ -2483,14 +2474,14 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>14</v>
@@ -2866,14 +2857,14 @@
         <v>10</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>54</v>
@@ -2913,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3293,7 +3284,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4662,14 +4653,14 @@
         <v>10</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>68</v>
@@ -4709,7 +4700,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5023,12 +5014,12 @@
         <v>37</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -5056,12 +5047,12 @@
         <v>37</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -5089,12 +5080,12 @@
         <v>37</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -5353,14 +5344,14 @@
         <v>10</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I80" s="25" t="s">
         <v>185</v>
@@ -5423,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B0690E-E90E-411F-9FE6-3582F8963D13}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -5572,7 +5563,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>182</v>
       </c>
       <c r="I4" s="55" t="s">
@@ -6314,7 +6305,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -6502,7 +6493,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -6613,7 +6604,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="51" t="s">
         <v>187</v>
@@ -6660,7 +6651,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I31" s="51" t="s">
         <v>187</v>
@@ -6700,14 +6691,14 @@
         <v>10</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I32" s="51" t="s">
         <v>187</v>
@@ -6747,7 +6738,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="51"/>
@@ -7332,14 +7323,14 @@
         <v>10</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D51" s="52"/>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
       <c r="G51" s="52"/>
       <c r="H51" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I51" s="53" t="s">
         <v>185</v>
@@ -7369,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4E8564-91D3-43D4-B98F-1CDB5C1565D5}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7512,7 +7503,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="78" t="s">
         <v>182</v>
       </c>
       <c r="I4" s="73"/>
@@ -8096,10 +8087,12 @@
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="F20" s="50" t="s">
+        <v>382</v>
+      </c>
       <c r="G20" s="50"/>
-      <c r="H20" s="78" t="s">
-        <v>274</v>
+      <c r="H20" s="74" t="s">
+        <v>264</v>
       </c>
       <c r="I20" s="72" t="s">
         <v>268</v>
@@ -8482,14 +8475,14 @@
         <v>10</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I35" s="72"/>
       <c r="J35" s="52"/>
@@ -8563,7 +8556,7 @@
         <v>176</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65" t="s">
@@ -8579,12 +8572,12 @@
         <v>176</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
       <c r="E3" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>14</v>
@@ -8597,7 +8590,7 @@
         <v>176</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -8615,12 +8608,12 @@
         <v>176</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
       <c r="E5" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F5" s="51" t="s">
         <v>14</v>
@@ -8633,7 +8626,7 @@
         <v>176</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -8651,12 +8644,12 @@
         <v>176</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
       <c r="E7" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="51" t="s">
         <v>14</v>
@@ -8687,12 +8680,12 @@
         <v>176</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>14</v>
@@ -8705,12 +8698,12 @@
         <v>176</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
       <c r="E10" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>14</v>
@@ -8723,12 +8716,12 @@
         <v>176</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="65"/>
       <c r="D11" s="65"/>
       <c r="E11" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F11" s="51" t="s">
         <v>14</v>
@@ -8741,12 +8734,12 @@
         <v>176</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
       <c r="E12" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="51" t="s">
         <v>14</v>
@@ -8759,7 +8752,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
@@ -8777,12 +8770,12 @@
         <v>176</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="65"/>
       <c r="E14" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>14</v>
@@ -8795,7 +8788,7 @@
         <v>176</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
@@ -8813,12 +8806,12 @@
         <v>176</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="82" t="s">
-        <v>330</v>
+      <c r="E16" s="81" t="s">
+        <v>329</v>
       </c>
       <c r="F16" s="51" t="s">
         <v>14</v>
@@ -8831,12 +8824,12 @@
         <v>176</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="65"/>
       <c r="E17" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>14</v>
@@ -8849,12 +8842,12 @@
         <v>176</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
       <c r="E18" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>14</v>
@@ -8867,12 +8860,12 @@
         <v>176</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>14</v>
@@ -8885,12 +8878,12 @@
         <v>176</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
       <c r="E20" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F20" s="51" t="s">
         <v>14</v>
@@ -8903,12 +8896,12 @@
         <v>176</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
       <c r="E21" s="65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F21" s="51" t="s">
         <v>14</v>
@@ -8921,12 +8914,12 @@
         <v>176</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
       <c r="E22" s="65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F22" s="51" t="s">
         <v>14</v>
@@ -8939,12 +8932,12 @@
         <v>176</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F23" s="51" t="s">
         <v>14</v>
@@ -8957,12 +8950,12 @@
         <v>176</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
       <c r="E24" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F24" s="51" t="s">
         <v>14</v>
@@ -8975,12 +8968,12 @@
         <v>176</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F25" s="51" t="s">
         <v>14</v>
@@ -8993,12 +8986,12 @@
         <v>176</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" s="51" t="s">
         <v>14</v>
@@ -9059,7 +9052,7 @@
         <v>220</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65" t="s">
@@ -9075,12 +9068,12 @@
         <v>220</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
       <c r="E3" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>54</v>
@@ -9111,7 +9104,7 @@
         <v>220</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
@@ -9129,7 +9122,7 @@
         <v>220</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -9183,12 +9176,12 @@
         <v>220</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>54</v>
@@ -9204,7 +9197,7 @@
         <v>178</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>54</v>
@@ -9217,10 +9210,10 @@
         <v>220</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>359</v>
+        <v>307</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>358</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>54</v>
@@ -9233,10 +9226,10 @@
         <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>54</v>
@@ -9247,10 +9240,10 @@
         <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>362</v>
+        <v>348</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>361</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>54</v>
@@ -9261,10 +9254,10 @@
         <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>322</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>363</v>
+        <v>321</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>362</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>54</v>
@@ -9277,8 +9270,8 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>364</v>
+      <c r="E15" s="82" t="s">
+        <v>363</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>54</v>
@@ -9289,10 +9282,10 @@
         <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>54</v>
@@ -9303,10 +9296,10 @@
         <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>54</v>
@@ -9317,9 +9310,9 @@
         <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="82" t="s">
         <v>252</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -9331,9 +9324,9 @@
         <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
-      </c>
-      <c r="E19" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" s="82" t="s">
         <v>253</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -9345,9 +9338,9 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="82" t="s">
         <v>254</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -9359,10 +9352,10 @@
         <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>366</v>
+        <v>356</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>365</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>54</v>
@@ -9373,10 +9366,10 @@
         <v>220</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>54</v>
@@ -9401,10 +9394,10 @@
         <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>54</v>
@@ -9466,7 +9459,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65" t="s">
@@ -9481,19 +9474,19 @@
       <c r="A3" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81" t="s">
-        <v>284</v>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80" t="s">
+        <v>283</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="67" t="s">
@@ -9514,11 +9507,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="42" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="83" t="s">
         <v>221</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>92</v>
@@ -9527,7 +9520,7 @@
         <v>68</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="85"/>
+      <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="65" t="s">
@@ -9593,7 +9586,7 @@
         <v>171</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>68</v>
@@ -9606,10 +9599,10 @@
         <v>221</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>68</v>
@@ -9622,10 +9615,10 @@
         <v>221</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>68</v>
@@ -9638,7 +9631,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>77</v>
@@ -9697,61 +9690,61 @@
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="86"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
       <c r="A16" s="65" t="s">
         <v>221</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="65" t="s">
         <v>221</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="86"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="65" t="s">
         <v>221</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="86"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="65" t="s">
@@ -9761,13 +9754,13 @@
         <v>178</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="86"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="65" t="s">
@@ -9954,7 +9947,7 @@
         <v>221</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>137</v>
@@ -9972,7 +9965,7 @@
         <v>221</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>139</v>
@@ -9990,7 +9983,7 @@
         <v>221</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>142</v>
@@ -10008,7 +10001,7 @@
         <v>221</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>144</v>
@@ -10026,7 +10019,7 @@
         <v>221</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>146</v>
@@ -10044,7 +10037,7 @@
         <v>221</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>148</v>
@@ -10062,10 +10055,10 @@
         <v>221</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>68</v>
@@ -10116,10 +10109,10 @@
         <v>221</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>68</v>
@@ -10204,10 +10197,10 @@
         <v>221</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="7"/>
@@ -10218,10 +10211,10 @@
         <v>221</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>68</v>
@@ -10236,7 +10229,7 @@
         <v>221</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>165</v>
@@ -10254,7 +10247,7 @@
         <v>221</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>167</v>
@@ -10272,10 +10265,10 @@
         <v>221</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>68</v>
